--- a/AECPLoadIndicator/tests/testthat/Table_R_substances_example.xlsx
+++ b/AECPLoadIndicator/tests/testthat/Table_R_substances_example.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Moehring\Daten\Risikoindikatoren Dänemark Norwegen\Code Empty Tables Examples Computation Load Indicator\Final_Pesticide_Load_Calculation\PL_Swiss_examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uweschmitt/Projects/Load-Indicator/AECPLoadIndicator/tests/testthat/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D130B5-7AD1-2E43-84B7-FEA532A0E244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25260" windowHeight="11430"/>
+    <workbookView xWindow="-35220" yWindow="-3320" windowWidth="25260" windowHeight="11440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="2" state="veryHidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,9 +34,6 @@
     <t>Trifloxystrobin</t>
   </si>
   <si>
-    <t>SCI-Grow</t>
-  </si>
-  <si>
     <t>BCF</t>
   </si>
   <si>
@@ -195,19 +193,22 @@
     <t>concentration</t>
   </si>
   <si>
-    <t>Reference.SCI-Grow</t>
-  </si>
-  <si>
     <t>Reference.BCF</t>
   </si>
   <si>
     <t>Reference.SoilDT50</t>
+  </si>
+  <si>
+    <t>SCI.Grow</t>
+  </si>
+  <si>
+    <t>Reference.SCI.Grow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -304,7 +305,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="EsriDoNotEdit"/>
+        <xdr:cNvPr id="2" name="EsriDoNotEdit">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -643,209 +650,209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT11" sqref="AT11:AT29"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="2"/>
+    <col min="1" max="1" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.1640625" style="2"/>
     <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="40.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="33.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="40.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="33.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="32" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="32.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="27.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="35.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="35.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="27.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="23" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="23" style="2" customWidth="1"/>
-    <col min="41" max="41" width="50.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="44.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="57.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="35.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="50.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="44.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="57.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="35.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="W1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" t="s">
         <v>25</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AK1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" t="s">
         <v>27</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="AP1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>31</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AR1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" t="s">
         <v>33</v>
       </c>
-      <c r="AT1" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="2" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>0.08</v>
@@ -980,12 +987,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
         <v>0.1875</v>
@@ -1120,12 +1127,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="C4" s="2">
         <v>0.48</v>
@@ -1262,12 +1269,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2">
         <v>6.5000000000000002E-2</v>
@@ -1402,12 +1409,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2">
         <v>6.5699999999999995E-2</v>
@@ -1542,12 +1549,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2">
         <v>4.3799999999999999E-2</v>
@@ -1682,12 +1689,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2">
         <v>0.219</v>
@@ -1822,12 +1829,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="C9" s="2">
         <v>0.17499999999999999</v>
@@ -1963,12 +1970,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2">
         <v>0.24</v>
@@ -2104,7 +2111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="E11" s="2">
         <v>12.5</v>
       </c>
@@ -2181,7 +2188,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="E12" s="2">
         <v>12.5</v>
       </c>
@@ -2258,7 +2265,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="E13" s="2">
         <v>12.5</v>
       </c>
@@ -2335,7 +2342,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="E14" s="2">
         <v>12.5</v>
       </c>
@@ -2412,7 +2419,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="E15" s="2">
         <v>12.5</v>
       </c>
@@ -2489,7 +2496,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="E16" s="2">
         <v>12.5</v>
       </c>
@@ -2566,7 +2573,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="17" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E17" s="2">
         <v>12.5</v>
       </c>
@@ -2643,7 +2650,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="18" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E18" s="2">
         <v>12.5</v>
       </c>
@@ -2720,7 +2727,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="19" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E19" s="2">
         <v>12.5</v>
       </c>
@@ -2797,7 +2804,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="20" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E20" s="2">
         <v>12.5</v>
       </c>
@@ -2874,7 +2881,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="21" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E21" s="2">
         <v>12.5</v>
       </c>
@@ -2951,7 +2958,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="22" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E22" s="2">
         <v>12.5</v>
       </c>
@@ -3028,7 +3035,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="23" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E23" s="2">
         <v>12.5</v>
       </c>
@@ -3105,7 +3112,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="24" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E24" s="2">
         <v>12.5</v>
       </c>
@@ -3182,7 +3189,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="25" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E25" s="2">
         <v>12.5</v>
       </c>
@@ -3259,7 +3266,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="26" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E26" s="2">
         <v>12.5</v>
       </c>
@@ -3336,7 +3343,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="27" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E27" s="2">
         <v>12.5</v>
       </c>
@@ -3413,7 +3420,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="28" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E28" s="2">
         <v>12.5</v>
       </c>
@@ -3490,7 +3497,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="29" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E29" s="2">
         <v>12.5</v>
       </c>
@@ -3552,7 +3559,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="30" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:42" x14ac:dyDescent="0.2">
       <c r="E30" s="2">
         <v>12.5</v>
       </c>
@@ -3564,12 +3571,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
